--- a/data/id_molde.xlsx
+++ b/data/id_molde.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufmail-my.sharepoint.com/personal/valeriavasquez_office_ufm_edu/Documents/30 UFM/Trabajos/Semestre 6/SI105. Taller de Ingeniería II/rekubricks_webapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{030B2DC3-FFBB-43CD-936D-7252CBB0F057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6F9E341-9E9F-B34D-942D-F1098CF0038D}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{030B2DC3-FFBB-43CD-936D-7252CBB0F057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FBDAB9F-32B3-E746-9DF5-BDC302E36349}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" tabRatio="747" xr2:uid="{54CBB998-A48E-47CC-A323-91BD93750276}"/>
   </bookViews>
   <sheets>
-    <sheet name="ID_MOLDE" sheetId="2" r:id="rId1"/>
+    <sheet name="ID_MOLDE" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,18 +35,328 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={85B1A1C1-3B56-48DC-B148-2788784A9B60}</author>
+    <author>tc={5A31F791-BD5E-42DF-89A0-29D0E56874A5}</author>
+    <author>tc={DBA09D95-F389-4BAB-B0C4-52FD3264299C}</author>
+  </authors>
+  <commentList>
+    <comment ref="A182" authorId="0" shapeId="0" xr:uid="{85B1A1C1-3B56-48DC-B148-2788784A9B60}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Hay que cambiar el codigo por 3069 y ajustarlo con el otro código</t>
+      </text>
+    </comment>
+    <comment ref="A519" authorId="1" shapeId="0" xr:uid="{5A31F791-BD5E-42DF-89A0-29D0E56874A5}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Cambiar código y ajustar con el existente
+</t>
+      </text>
+    </comment>
+    <comment ref="A802" authorId="2" shapeId="0" xr:uid="{DBA09D95-F389-4BAB-B0C4-52FD3264299C}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    CAMBIAR CÓDIGO Y AJUSTAR CON EXISTENTES
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>ID_MOLDE</t>
+  </si>
+  <si>
+    <t>3069PB0779</t>
+  </si>
+  <si>
+    <t>98138PB007</t>
+  </si>
+  <si>
+    <t>2429C01</t>
+  </si>
+  <si>
+    <t>6538C</t>
+  </si>
+  <si>
+    <t>98138PB027</t>
+  </si>
+  <si>
+    <t>3829C01</t>
+  </si>
+  <si>
+    <t>98138PB066</t>
+  </si>
+  <si>
+    <t>88492C00</t>
+  </si>
+  <si>
+    <t>X789</t>
+  </si>
+  <si>
+    <t>3024PB10</t>
+  </si>
+  <si>
+    <t>14769PB004</t>
+  </si>
+  <si>
+    <t>3626CPB1018</t>
+  </si>
+  <si>
+    <t>98138PB014</t>
+  </si>
+  <si>
+    <t>98138PB015</t>
+  </si>
+  <si>
+    <t>6538B</t>
+  </si>
+  <si>
+    <t>88646PB012</t>
+  </si>
+  <si>
+    <t>14769PB356</t>
+  </si>
+  <si>
+    <t>4738AC01</t>
+  </si>
+  <si>
+    <t>85959PB01B</t>
+  </si>
+  <si>
+    <t>98138PB021</t>
+  </si>
+  <si>
+    <t>98138PB037</t>
+  </si>
+  <si>
+    <t>X346</t>
+  </si>
+  <si>
+    <t>3004PB185</t>
+  </si>
+  <si>
+    <t>87621PB01</t>
+  </si>
+  <si>
+    <t>93081D</t>
+  </si>
+  <si>
+    <t>59233PB01</t>
+  </si>
+  <si>
+    <t>11125C01</t>
+  </si>
+  <si>
+    <t>25269PB003</t>
+  </si>
+  <si>
+    <t>2586PB003</t>
+  </si>
+  <si>
+    <t>3040PB010</t>
+  </si>
+  <si>
+    <t>3069BPB0030</t>
+  </si>
+  <si>
+    <t>3069PX19</t>
+  </si>
+  <si>
+    <t>3070PB140</t>
+  </si>
+  <si>
+    <t>3070PB174</t>
+  </si>
+  <si>
+    <t>31895PB01</t>
+  </si>
+  <si>
+    <t>35809PB03</t>
+  </si>
+  <si>
+    <t>3626CP01</t>
+  </si>
+  <si>
+    <t>37829PB03</t>
+  </si>
+  <si>
+    <t>459C02</t>
+  </si>
+  <si>
+    <t>60797PB02</t>
+  </si>
+  <si>
+    <t>61190A</t>
+  </si>
+  <si>
+    <t>62520C01</t>
+  </si>
+  <si>
+    <t>62575PB01</t>
+  </si>
+  <si>
+    <t>64867PB03</t>
+  </si>
+  <si>
+    <t>80441PB01</t>
+  </si>
+  <si>
+    <t>90398PB047</t>
+  </si>
+  <si>
+    <t>90398PB048</t>
+  </si>
+  <si>
+    <t>90639PB007</t>
+  </si>
+  <si>
+    <t>93081C</t>
+  </si>
+  <si>
+    <t>93081E</t>
+  </si>
+  <si>
+    <t>93083C01PB05</t>
+  </si>
+  <si>
+    <t>98138PB013</t>
+  </si>
+  <si>
+    <t>98138PB033</t>
+  </si>
+  <si>
+    <t>98138PB042</t>
+  </si>
+  <si>
+    <t>98138PB085</t>
+  </si>
+  <si>
+    <t>98138PB097</t>
+  </si>
+  <si>
+    <t>98138PB118</t>
+  </si>
+  <si>
+    <t>98138PB175</t>
+  </si>
+  <si>
+    <t>98138PB256</t>
+  </si>
+  <si>
+    <t>98138PB260</t>
+  </si>
+  <si>
+    <t>98138PB261</t>
+  </si>
+  <si>
+    <t>98382PB001</t>
+  </si>
+  <si>
+    <t>98382PB007</t>
+  </si>
+  <si>
+    <t>X577</t>
+  </si>
+  <si>
+    <t>X71</t>
+  </si>
+  <si>
+    <t>X77AC50</t>
+  </si>
+  <si>
+    <t>85959PB01A</t>
+  </si>
+  <si>
+    <t>85959PB03</t>
+  </si>
+  <si>
+    <t>12610PB01</t>
+  </si>
+  <si>
+    <t>15618PB01</t>
+  </si>
+  <si>
+    <t>93080H</t>
+  </si>
+  <si>
+    <t>90370PB01</t>
+  </si>
+  <si>
+    <t>3840PB17</t>
+  </si>
+  <si>
+    <t>10049PB01</t>
+  </si>
+  <si>
+    <t>15626PB01</t>
+  </si>
+  <si>
+    <t>27328PB01</t>
+  </si>
+  <si>
+    <t>3626PB0001</t>
+  </si>
+  <si>
+    <t>3846PB019</t>
+  </si>
+  <si>
+    <t>75902PB02</t>
+  </si>
+  <si>
+    <t>75C08</t>
+  </si>
+  <si>
+    <t>78532PB01</t>
+  </si>
+  <si>
+    <t>79710PB01</t>
+  </si>
+  <si>
+    <t>87606PB02</t>
+  </si>
+  <si>
+    <t>91884PB002</t>
+  </si>
+  <si>
+    <t>91884PB004</t>
+  </si>
+  <si>
+    <t>94158D</t>
+  </si>
+  <si>
+    <t>94158E</t>
+  </si>
+  <si>
+    <t>93552PB03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -60,43 +370,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -104,39 +387,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -144,7 +409,62 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{92FEDA95-ADD9-4DB5-99BA-DB8773F3F9DD}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -158,7 +478,19 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Pedro Marroquín" id="{36C131CE-1328-4D1E-A6C9-9D611A56E003}" userId="d3311e2fa4f87d9a" providerId="Windows Live"/>
+</personList>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90BE38B6-B44F-44D2-A5AF-A4FCEE9C3FA2}" name="Table1" displayName="Table1" ref="A1:A1138" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+  <autoFilter ref="A1:A1138" xr:uid="{90BE38B6-B44F-44D2-A5AF-A4FCEE9C3FA2}"/>
+  <tableColumns count="1">
+    <tableColumn id="2" xr3:uid="{94AE3EB8-6E3B-4F3B-80CE-DF5B22A1D6C3}" name="ID_MOLDE" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -476,17 +808,36 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A182" dT="2025-03-16T13:57:55.42" personId="{36C131CE-1328-4D1E-A6C9-9D611A56E003}" id="{85B1A1C1-3B56-48DC-B148-2788784A9B60}">
+    <text>Hay que cambiar el codigo por 3069 y ajustarlo con el otro código</text>
+  </threadedComment>
+  <threadedComment ref="A519" dT="2025-03-16T14:07:19.62" personId="{36C131CE-1328-4D1E-A6C9-9D611A56E003}" id="{5A31F791-BD5E-42DF-89A0-29D0E56874A5}">
+    <text xml:space="preserve">Cambiar código y ajustar con el existente
+</text>
+  </threadedComment>
+  <threadedComment ref="A802" dT="2025-03-16T14:11:07.62" personId="{36C131CE-1328-4D1E-A6C9-9D611A56E003}" id="{DBA09D95-F389-4BAB-B0C4-52FD3264299C}">
+    <text xml:space="preserve">CAMBIAR CÓDIGO Y AJUSTAR CON EXISTENTES
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80925A2A-D03D-544B-AE73-1C97955F9EDA}">
-  <dimension ref="A1:A30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC867F71-EC40-4269-B670-6381EBDA4DED}">
+  <dimension ref="A1:A1138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A2" sqref="A2:A1138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +848,7 @@
       </c>
     </row>
     <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>98138</v>
       </c>
     </row>
@@ -507,7 +858,7 @@
       </c>
     </row>
     <row r="5" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4073</v>
       </c>
     </row>
@@ -517,7 +868,7 @@
       </c>
     </row>
     <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>2412</v>
       </c>
     </row>
@@ -527,7 +878,7 @@
       </c>
     </row>
     <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>37762</v>
       </c>
     </row>
@@ -537,17 +888,17 @@
       </c>
     </row>
     <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>49668</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>3023</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>3024</v>
       </c>
     </row>
@@ -557,7 +908,7 @@
       </c>
     </row>
     <row r="15" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>3004</v>
       </c>
     </row>
@@ -567,7 +918,7 @@
       </c>
     </row>
     <row r="17" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>30136</v>
       </c>
     </row>
@@ -577,7 +928,7 @@
       </c>
     </row>
     <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>3022</v>
       </c>
     </row>
@@ -587,7 +938,7 @@
       </c>
     </row>
     <row r="21" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>3710</v>
       </c>
     </row>
@@ -597,7 +948,7 @@
       </c>
     </row>
     <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>87580</v>
       </c>
     </row>
@@ -607,7 +958,7 @@
       </c>
     </row>
     <row r="25" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>3021</v>
       </c>
     </row>
@@ -617,7 +968,7 @@
       </c>
     </row>
     <row r="27" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>3001</v>
       </c>
     </row>
@@ -627,7 +978,7 @@
       </c>
     </row>
     <row r="29" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>54200</v>
       </c>
     </row>
@@ -636,7 +987,5552 @@
         <v>4593</v>
       </c>
     </row>
+    <row r="31" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>3673</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>15279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>6014</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>15712</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>32062</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>99780</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>85861</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>6558</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>38583</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>3941</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>48336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>60478</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>63868</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>61409</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>85984</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>11458</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>24246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>11211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>87087</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>6553</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>92280</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>98283</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>11477</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>24855</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>55981</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>20310</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>3623</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>4592</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>68568</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>92593</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>15573</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>49307</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>32028</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>4519</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>4624</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>30137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>33183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>48729</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>60470</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>87414</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>6636</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>26047</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>50950</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>60603</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>99781</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>4589</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>14418</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>15533</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>30028</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>60592</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>4588</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>6157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>32064</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>43888</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>6541</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>14417</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>34103</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>35464</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>92946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>25269</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>34337</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>87079</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>87620</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>27925</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>60481</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>32607</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>61184</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>61252</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A136" s="2">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="4">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A138" s="2">
+        <v>3705</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A139" s="2">
+        <v>6628</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A140" s="2">
+        <v>11090</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141" s="2">
+        <v>32054</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A142" s="2">
+        <v>33909</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A143" s="2">
+        <v>60471</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A144" s="2">
+        <v>60594</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145" s="2">
+        <v>70681</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
+        <v>3937</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A148" s="2">
+        <v>6587</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149" s="2">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150" s="2">
+        <v>15470</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A151" s="2">
+        <v>26604</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A152" s="2">
+        <v>30414</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
+        <v>35787</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
+        <v>50745</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A155" s="2">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A156" s="2">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A157" s="2">
+        <v>32523</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
+        <v>35480</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
+        <v>4623</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
+        <v>6091</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <v>10247</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>11476</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <v>14769</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A168" s="2">
+        <v>32556</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
+        <v>44237</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A170" s="2">
+        <v>92402</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A171" s="2">
+        <v>99563</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A173" s="2">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A174" s="2">
+        <v>27263</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A175" s="2">
+        <v>30374</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
+        <v>32209</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A177" s="2">
+        <v>48092</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
+        <v>99206</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A179" s="2">
+        <v>6111</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A180" s="2">
+        <v>14704</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A181" s="2">
+        <v>20482</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A182" s="2">
+        <v>35386</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A183" s="2">
+        <v>10197</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A184" s="2">
+        <v>50945</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A185" s="2">
+        <v>52107</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A186" s="2">
+        <v>57895</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A187" s="2">
+        <v>60475</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A188" s="2">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A189" s="2">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A190" s="2">
+        <v>11609</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A191" s="2">
+        <v>14719</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A192" s="2">
+        <v>15301</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A193" s="2">
+        <v>78666</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A194" s="2">
+        <v>87083</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A195" s="2">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A196" s="2">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A197" s="2">
+        <v>4079</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A198" s="2">
+        <v>4595</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A199" s="2">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A200" s="2">
+        <v>14716</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A201" s="2">
+        <v>15068</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A202" s="2">
+        <v>30176</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A203" s="2">
+        <v>93273</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A204" s="2">
+        <v>30153</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A205" s="2">
+        <v>32013</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A206" s="2">
+        <v>64644</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A207" s="2">
+        <v>73117</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A208" s="2">
+        <v>87552</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A209" s="2">
+        <v>3832</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A210" s="2">
+        <v>4865</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A211" s="2">
+        <v>6106</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A212" s="2">
+        <v>6182</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A213" s="2">
+        <v>17836</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A214" s="2">
+        <v>18677</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A215" s="2">
+        <v>44568</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A216" s="2">
+        <v>57909</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A217" s="2">
+        <v>61254</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A218" s="2">
+        <v>69729</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A220" s="2">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A221" s="2">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A222" s="2">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A223" s="2">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A224" s="2">
+        <v>11215</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A225" s="2">
+        <v>15571</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A226" s="2">
+        <v>10288</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A227" s="2">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A228" s="2">
+        <v>87994</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A229" s="2">
+        <v>89201</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A230" s="2">
+        <v>93095</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A231" s="2">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A232" s="2">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A233" s="2">
+        <v>3659</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A234" s="2">
+        <v>3706</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A235" s="2">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A236" s="2">
+        <v>11212</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A237" s="2">
+        <v>30503</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A238" s="2">
+        <v>32073</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A239" s="2">
+        <v>37352</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A240" s="2">
+        <v>44567</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A241" s="2">
+        <v>61485</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A242" s="2">
+        <v>65578</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A243" s="2">
+        <v>74967</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A244" s="2">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A245" s="2">
+        <v>2926</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A246" s="2">
+        <v>18649</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A247" s="2">
+        <v>30145</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A248" s="2">
+        <v>15461</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A249" s="2">
+        <v>36841</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A250" s="2">
+        <v>43722</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A251" s="2">
+        <v>43723</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A252" s="2">
+        <v>44728</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A253" s="2">
+        <v>47457</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A254" s="2">
+        <v>62462</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A255" s="2">
+        <v>87747</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A256" s="2">
+        <v>98313</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A257" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A258" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A259" s="2">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A260" s="2">
+        <v>3709</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A261" s="2">
+        <v>4162</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A262" s="2">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A263" s="2">
+        <v>4733</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A264" s="2">
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A265" s="2">
+        <v>6134</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A266" s="2">
+        <v>10172</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A267" s="2">
+        <v>13547</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A268" s="2">
+        <v>30377</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A269" s="2">
+        <v>30586</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A270" s="2">
+        <v>32001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A271" s="2">
+        <v>47455</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A272" s="2">
+        <v>53451</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A273" s="2">
+        <v>60479</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A274" s="2">
+        <v>63965</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A275" s="2">
+        <v>85080</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A276" s="2">
+        <v>92950</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A277" s="2">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A278" s="2">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A279" s="2">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A280" s="2">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" s="4">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A282" s="2">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A283" s="2">
+        <v>4477</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A284" s="2">
+        <v>24299</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A285" s="2">
+        <v>24307</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A286" s="2">
+        <v>30526</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A287" s="2">
+        <v>30565</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A288" s="2">
+        <v>32014</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A289" s="2">
+        <v>34816</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A290" s="2">
+        <v>41532</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A291" s="2">
+        <v>43898</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A292" s="2">
+        <v>54384</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A293" s="2">
+        <v>59895</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A294" s="2">
+        <v>60849</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A295" s="2">
+        <v>63864</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A296" s="2">
+        <v>64567</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A297" s="2">
+        <v>65138</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A298" s="2">
+        <v>73825</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A299" s="2">
+        <v>75937</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A300" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A301" s="2">
+        <v>93604</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A302" s="2">
+        <v>99207</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A303" s="2">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A304" s="2">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A305" s="2">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A306" s="2">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A307" s="2">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A308" s="2">
+        <v>4727</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A309" s="2">
+        <v>4871</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A310" s="2">
+        <v>6020</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A311" s="2">
+        <v>13971</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A312" s="2">
+        <v>30157</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A313" s="2">
+        <v>30383</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A314" s="2">
+        <v>32270</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A315" s="2">
+        <v>41769</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A316" s="2">
+        <v>50944</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A317" s="2">
+        <v>58247</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A318" s="2">
+        <v>60483</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A319" s="2">
+        <v>60596</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A320" s="2">
+        <v>60601</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A321" s="2">
+        <v>61678</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A322" s="2">
+        <v>64448</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A323" s="2">
+        <v>64867</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A324" s="2">
+        <v>88292</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A325" s="2">
+        <v>92947</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A326" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A327" s="2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A328" s="2">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A329" s="2">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A330" s="2">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A331" s="2">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A332" s="2">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A333" s="2">
+        <v>6231</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A334" s="2">
+        <v>32015</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A335" s="2">
+        <v>11209</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A336" s="2">
+        <v>13548</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A337" s="2">
+        <v>18838</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A338" s="2">
+        <v>24201</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A339" s="2">
+        <v>26601</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A340" s="2">
+        <v>32018</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A341" s="2">
+        <v>32828</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A342" s="2">
+        <v>35341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A343" s="2">
+        <v>36840</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A344" s="2">
+        <v>37695</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A345" s="2">
+        <v>41770</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A346" s="2">
+        <v>44302</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A347" s="2">
+        <v>51266</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A348" s="2">
+        <v>51739</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A349" s="2">
+        <v>53401</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A350" s="2">
+        <v>58176</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A351" s="2">
+        <v>60593</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A352" s="2">
+        <v>60616</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A353" s="2">
+        <v>61345</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A354" s="2">
+        <v>80326</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A355" s="2">
+        <v>92589</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A356" s="2">
+        <v>93160</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A357" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A358" s="2">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A359" s="2">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A360" s="2">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A361" s="2">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A362" s="2">
+        <v>4697</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A363" s="2">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A364" s="2">
+        <v>11208</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A365" s="2">
+        <v>13564</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A366" s="2">
+        <v>15208</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A367" s="2">
+        <v>15303</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A368" s="2">
+        <v>18654</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A369" s="2">
+        <v>18674</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A370" s="2">
+        <v>18853</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A371" s="2">
+        <v>24505</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A372" s="2">
+        <v>30044</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A373" s="2">
+        <v>30237</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A374" s="2">
+        <v>32530</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A375" s="2">
+        <v>33303</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A376" s="2">
+        <v>43337</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A377" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A378" s="2">
+        <v>47720</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A379" s="2">
+        <v>55013</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A380" s="2">
+        <v>55982</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A381" s="2">
+        <v>62361</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A382" s="2">
+        <v>92690</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A383" s="2">
+        <v>93274</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A384" s="2">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A385" s="2">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A386" s="2">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A387" s="2">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A388" s="2">
+        <v>3831</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A389" s="2">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A390" s="2">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A391" s="2">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A392" s="2">
+        <v>6112</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A393" s="2">
+        <v>6126</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A394" s="2">
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A395" s="2">
+        <v>15462</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A396" s="2">
+        <v>15535</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A397" s="2">
+        <v>19121</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A398" s="2">
+        <v>21229</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A399" s="2">
+        <v>23969</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A400" s="2">
+        <v>25214</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A401" s="2">
+        <v>29119</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A402" s="2">
+        <v>29120</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A403" s="2">
+        <v>30236</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A404" s="2">
+        <v>30553</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A405" s="2">
+        <v>22885</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A406" s="2">
+        <v>39613</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A407" s="2">
+        <v>41539</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A408" s="2">
+        <v>41677</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A409" s="2">
+        <v>44301</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A410" s="2">
+        <v>44861</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A411" s="2">
+        <v>47759</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A412" s="2">
+        <v>47905</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A413" s="2">
+        <v>54383</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A414" s="2">
+        <v>60583</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A415" s="2">
+        <v>80324</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A416" s="2">
+        <v>87544</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A417" s="2">
+        <v>92409</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A418" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A419" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A420" s="2">
+        <v>90370</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A421" s="2">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A422" s="2">
+        <v>3849</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A423" s="2">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A424" s="2">
+        <v>3957</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A425" s="2">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A426" s="2">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A427" s="2">
+        <v>4687</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A428" s="2">
+        <v>6003</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A429" s="2">
+        <v>6179</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A430" s="2">
+        <v>6589</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A431" s="2">
+        <v>11253</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A432" s="2">
+        <v>16577</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A433" s="2">
+        <v>22886</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434" s="4">
+        <v>27507</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A435" s="2">
+        <v>28192</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A436" s="2">
+        <v>30165</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A437" s="2">
+        <v>30357</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A438" s="2">
+        <v>30552</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A439" s="2">
+        <v>32059</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A440" s="2">
+        <v>32529</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A441" s="2">
+        <v>42023</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A442" s="2">
+        <v>54782</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A443" s="2">
+        <v>59230</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A444" s="2">
+        <v>64276</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A445" s="2">
+        <v>74698</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A446" s="2">
+        <v>91405</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A447" s="2">
+        <v>95344</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A448" s="2">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A449" s="2">
+        <v>33085</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A450" s="2">
+        <v>51270</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A451" s="2">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A452" s="2">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A453" s="2">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A454" s="2">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A455" s="2">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A456" s="2">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A457" s="2">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A458" s="2">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A459" s="2">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A460" s="2">
+        <v>3821</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A461" s="2">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A462" s="2">
+        <v>3839</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A463" s="2">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A464" s="2">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A465" s="2">
+        <v>4533</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A466" s="2">
+        <v>6233</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A467" s="2">
+        <v>6536</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A468" s="2">
+        <v>32039</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A469" s="2">
+        <v>11062</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A470" s="2">
+        <v>15254</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A471" s="2">
+        <v>18980</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A472" s="2">
+        <v>22888</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A473" s="2">
+        <v>28326</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A474" s="2">
+        <v>28870</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A475" s="2">
+        <v>30602</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A476" s="2">
+        <v>30663</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A477" s="2">
+        <v>32016</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A478" s="2">
+        <v>32449</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A479" s="2">
+        <v>32526</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A480" s="2">
+        <v>32192</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A481" s="2">
+        <v>33078</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A482" s="2">
+        <v>38014</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A483" s="2">
+        <v>41768</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A484" s="2">
+        <v>42445</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A485" s="2">
+        <v>43903</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A486" s="2">
+        <v>56891</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A487" s="2">
+        <v>60032</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A488" s="2">
+        <v>60212</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A489" s="2">
+        <v>60474</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A490" s="2">
+        <v>60485</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A491" s="2">
+        <v>61072</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A492" s="2">
+        <v>85970</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A493" s="2">
+        <v>90981</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A494" s="2">
+        <v>91988</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A495" s="2">
+        <v>92338</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A496" s="2">
+        <v>93571</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A497" s="2">
+        <v>98721</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A498" s="2">
+        <v>99008</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A499" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A500" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A501" s="2">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A502" s="2">
+        <v>30173</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A503" s="2">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A504" s="2">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A505" s="2">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A506" s="2">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A507" s="2">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A508" s="2">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A509" s="2">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A510" s="2">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A511" s="2">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A512" s="2">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A513" s="2">
+        <v>6578</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A514" s="2">
+        <v>11478</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A515" s="2">
+        <v>14413</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A516" s="2">
+        <v>18653</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A517" s="2">
+        <v>18671</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A518" s="2">
+        <v>32952</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A519" s="2">
+        <v>28626</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A520" s="2">
+        <v>30239</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A521" s="2">
+        <v>30304</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A522" s="2">
+        <v>30363</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A523" s="2">
+        <v>30505</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A524" s="2">
+        <v>32002</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A525" s="2">
+        <v>32269</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A526" s="2">
+        <v>33299</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A527" s="2">
+        <v>34076</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A528" s="2">
+        <v>35291</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A529" s="2">
+        <v>47456</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A530" s="2">
+        <v>48171</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A531" s="2">
+        <v>48172</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A532" s="2">
+        <v>48723</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A533" s="2">
+        <v>50304</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A534" s="2">
+        <v>50861</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A535" s="2">
+        <v>56890</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A536" s="2">
+        <v>57908</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A537" s="2">
+        <v>60219</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A538" s="2">
+        <v>60476</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A539" s="2">
+        <v>62113</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A540" s="2">
+        <v>64648</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A541" s="2">
+        <v>90258</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A542" s="2">
+        <v>90622</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A543" s="2">
+        <v>92013</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A544" s="2">
+        <v>92582</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A545" s="2">
+        <v>93061</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A546" s="2">
+        <v>93594</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A547" s="2">
+        <v>93595</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A548" s="2">
+        <v>93606</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A549" s="2">
+        <v>94925</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A550" s="2">
+        <v>98100</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A551" s="2">
+        <v>98284</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A552" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A553" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A554" s="2">
+        <v>98139</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A555" s="2">
+        <v>3899</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A556" s="2">
+        <v>33172</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A557" s="2">
+        <v>22667</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A558" s="2">
+        <v>18920</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A559" s="2">
+        <v>15391</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A560" s="2">
+        <v>4528</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A561" s="2">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A562" s="2">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A563" s="2">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A564" s="2">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A565" s="2">
+        <v>3299</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A566" s="2">
+        <v>3684</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A567" s="2">
+        <v>3713</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A568" s="2">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A569" s="2">
+        <v>3895</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A570" s="2">
+        <v>4151</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A571" s="2">
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A572" s="2">
+        <v>4735</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A573" s="2">
+        <v>6005</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A574" s="2">
+        <v>6585</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A575" s="2">
+        <v>11213</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A576" s="2">
+        <v>11833</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A577" s="2">
+        <v>13349</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A578" s="2">
+        <v>15082</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A579" s="2">
+        <v>15395</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A580" s="2">
+        <v>15460</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A581" s="2">
+        <v>18892</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A582" s="2">
+        <v>22385</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A583" s="2">
+        <v>22388</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A584" s="2">
+        <v>22890</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A585" s="2">
+        <v>22961</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A586" s="2">
+        <v>23443</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A587" s="4">
+        <v>23444</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A588" s="2">
+        <v>26287</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A589" s="2">
+        <v>26603</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A590" s="2">
+        <v>27149</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A591" s="2">
+        <v>27261</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A592" s="2">
+        <v>27448</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A593" s="2">
+        <v>28286</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A594" s="2">
+        <v>30031</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A595" s="2">
+        <v>30090</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A596" s="2">
+        <v>30094</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A597" s="2">
+        <v>30356</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A598" s="2">
+        <v>30554</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A599" s="2">
+        <v>32017</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A600" s="2">
+        <v>32034</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A601" s="2">
+        <v>32316</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A602" s="2">
+        <v>32932</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A603" s="2">
+        <v>33320</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A604" s="2">
+        <v>35442</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A605" s="2">
+        <v>35574</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A606" s="2">
+        <v>38585</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A607" s="2">
+        <v>40379</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A608" s="2">
+        <v>41682</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A609" s="2">
+        <v>41740</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A610" s="2">
+        <v>42205</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A611" s="2">
+        <v>42918</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A612" s="2">
+        <v>43711</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A613" s="2">
+        <v>43713</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A614" s="2">
+        <v>45590</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A615" s="2">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A616" s="2">
+        <v>47755</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A617" s="2">
+        <v>48183</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A618" s="2">
+        <v>50373</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A619" s="2">
+        <v>50665</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A620" s="2">
+        <v>50862</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A621" s="2">
+        <v>50955</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A622" s="2">
+        <v>53454</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A623" s="2">
+        <v>53585</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A624" s="2">
+        <v>55236</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A625" s="2">
+        <v>60477</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A626" s="2">
+        <v>61780</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A627" s="2">
+        <v>64225</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A628" s="2">
+        <v>64728</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A629" s="2">
+        <v>72454</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A630" s="2">
+        <v>76766</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A631" s="2">
+        <v>79389</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A632" s="2">
+        <v>86996</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A633" s="2">
+        <v>87081</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A634" s="2">
+        <v>87618</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A635" s="2">
+        <v>88930</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A636" s="2">
+        <v>89678</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A637" s="2">
+        <v>90540</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A638" s="2">
+        <v>90617</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A639" s="2">
+        <v>90639</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A640" s="2">
+        <v>91501</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A641" s="2">
+        <v>92692</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A642" s="2">
+        <v>93609</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A643" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A644" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A645" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A646" s="2">
+        <v>33051</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A647" s="2">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A648" s="2">
+        <v>10050</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A649" s="2">
+        <v>18855</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A650" s="2">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A651" s="2">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A652" s="2">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A653" s="2">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A654" s="2">
+        <v>3703</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A655" s="2">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A656" s="2">
+        <v>3943</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A657" s="2">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A658" s="2">
+        <v>4185</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A659" s="2">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A660" s="2">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A661" s="2">
+        <v>4598</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A662" s="2">
+        <v>6124</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A663" s="2">
+        <v>6205</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A664" s="2">
+        <v>6222</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A665" s="2">
+        <v>6583</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A666" s="2">
+        <v>11214</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A667" s="2">
+        <v>15456</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A668" s="2">
+        <v>22484</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A669" s="2">
+        <v>27928</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A670" s="2">
+        <v>30043</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A671" s="2">
+        <v>30099</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A672" s="2">
+        <v>30284</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A673" s="2">
+        <v>30355</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A674" s="2">
+        <v>30387</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A675" s="2">
+        <v>30396</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A676" s="2">
+        <v>30413</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A677" s="2">
+        <v>30562</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A678" s="2">
+        <v>32009</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A679" s="2">
+        <v>32184</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A680" s="2">
+        <v>32187</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A681" s="2">
+        <v>32138</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A682" s="2">
+        <v>35470</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A683" s="2">
+        <v>39891</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A684" s="2">
+        <v>41767</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A685" s="2">
+        <v>41854</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A686" s="2">
+        <v>42003</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A687" s="2">
+        <v>42446</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A688" s="2">
+        <v>43710</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A689" s="2">
+        <v>43712</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A690" s="2">
+        <v>44822</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A691" s="2">
+        <v>47407</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A692" s="2">
+        <v>48933</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A693" s="2">
+        <v>50305</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A694" s="2">
+        <v>50923</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A695" s="2">
+        <v>50943</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A696" s="2">
+        <v>52501</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A697" s="2">
+        <v>53119</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A698" s="2">
+        <v>58381</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A699" s="2">
+        <v>60623</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A700" s="2">
+        <v>64727</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A701" s="2">
+        <v>65803</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A702" s="2">
+        <v>69984</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A703" s="2">
+        <v>79194</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A704" s="4">
+        <v>87611</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A705" s="2">
+        <v>88289</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A706" s="2">
+        <v>90616</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A707" s="2">
+        <v>90641</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A708" s="2">
+        <v>92438</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A709" s="2">
+        <v>92738</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A710" s="2">
+        <v>93555</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A711" s="2">
+        <v>93593</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A712" s="2">
+        <v>99773</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A713" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A714" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A715" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A716" s="2">
+        <v>87989</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A717" s="2">
+        <v>29636</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A718" s="2">
+        <v>34173</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A719" s="2">
+        <v>79741</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A720" s="2">
+        <v>15445</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A721" s="2">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A722" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A723" s="2">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A724" s="2">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A725" s="2">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A726" s="2">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A727" s="2">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A728" s="2">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A729" s="2">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A730" s="2">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A731" s="2">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A732" s="2">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A733" s="2">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A734" s="2">
+        <v>4182</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A735" s="2">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A736" s="2">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A737" s="2">
+        <v>4716</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A738" s="2">
+        <v>6108</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A739" s="2">
+        <v>6148</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A740" s="2">
+        <v>6254</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A741" s="2">
+        <v>6564</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A742" s="2">
+        <v>6565</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A743" s="2">
+        <v>6576</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A744" s="2">
+        <v>11267</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A745" s="2">
+        <v>11610</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A746" s="2">
+        <v>11640</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A747" s="2">
+        <v>14181</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A748" s="2">
+        <v>14419</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A749" s="2">
+        <v>15092</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A750" s="2">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A751" s="2">
+        <v>15209</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A752" s="2">
+        <v>15744</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A753" s="2">
+        <v>16968</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A754" s="2">
+        <v>18646</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A755" s="2">
+        <v>18651</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A756" s="2">
+        <v>18976</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A757" s="2">
+        <v>19220</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A758" s="2">
+        <v>21445</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A759" s="2">
+        <v>24204</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A760" s="2">
+        <v>27253</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A761" s="2">
+        <v>27256</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A762" s="2">
+        <v>27965</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A763" s="2">
+        <v>27976</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A764" s="2">
+        <v>28387</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A765" s="2">
+        <v>29219</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A766" s="2">
+        <v>30103</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A767" s="2">
+        <v>30134</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A768" s="2">
+        <v>30151</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A769" s="2">
+        <v>30162</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A770" s="2">
+        <v>30166</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A771" s="2">
+        <v>30361</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A772" s="2">
+        <v>32065</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A773" s="2">
+        <v>32072</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A774" s="2">
+        <v>32124</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A775" s="2">
+        <v>32140</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A776" s="2">
+        <v>32250</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A777" s="2">
+        <v>32271</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A778" s="2">
+        <v>32278</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A779" s="2">
+        <v>32348</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A780" s="2">
+        <v>32524</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A781" s="2">
+        <v>35186</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A782" s="2">
+        <v>38317</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A783" s="2">
+        <v>39262</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A784" s="2">
+        <v>40296</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A785" s="2">
+        <v>41678</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A786" s="2">
+        <v>41748</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A787" s="2">
+        <v>42511</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A788" s="2">
+        <v>44224</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A789" s="2">
+        <v>44225</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A790" s="2">
+        <v>44300</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A791" s="2">
+        <v>44661</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A792" s="2">
+        <v>44675</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A793" s="2">
+        <v>47452</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A794" s="2">
+        <v>47458</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A795" s="2">
+        <v>47753</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A796" s="2">
+        <v>48170</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A797" s="2">
+        <v>50956</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A798" s="2">
+        <v>57899</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A799" s="2">
+        <v>58380</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A800" s="2">
+        <v>59121</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A801" s="2">
+        <v>59349</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A802" s="2">
+        <v>59443</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A803" s="2">
+        <v>60484</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A804" s="2">
+        <v>61482</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A805" s="2">
+        <v>61483</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A806" s="2">
+        <v>62360</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A807" s="2">
+        <v>64451</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A808" s="2">
+        <v>64781</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A809" s="2">
+        <v>64847</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A810" s="2">
+        <v>64951</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A811" s="2">
+        <v>66727</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A812" s="2">
+        <v>66857</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A813" s="2">
+        <v>77078</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A814" s="2">
+        <v>80683</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A815" s="2">
+        <v>85943</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A816" s="2">
+        <v>85975</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A817" s="2">
+        <v>32557</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A818" s="2">
+        <v>87585</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A819" s="2">
+        <v>87609</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A820" s="2">
+        <v>87678</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A821" s="2">
+        <v>87752</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A822" s="2">
+        <v>88293</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A823" s="2">
+        <v>88704</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A824" s="2">
+        <v>90398</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A825" s="2">
+        <v>90608</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A826" s="2">
+        <v>90609</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A827" s="2">
+        <v>90613</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A828" s="2">
+        <v>90640</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A829" s="2">
+        <v>92279</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A830" s="2">
+        <v>98286</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A831" s="2">
+        <v>98834</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A832" s="2">
+        <v>99021</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A833" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A834" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A835" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A836" s="2">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A837" s="2">
+        <v>93082</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A838" s="2">
+        <v>18789</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A839" s="2">
+        <v>99809</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A840" s="2">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A841" s="2">
+        <v>95199</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A842" s="2">
+        <v>30088</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A843" s="2">
+        <v>95228</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A844" s="2">
+        <v>30340</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A845" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A846" s="2">
+        <v>92590</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A847" s="2">
+        <v>4523</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A848" s="2">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A849" s="2">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A850" s="2">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A851" s="2">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A852" s="2">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A853" s="2">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A854" s="2">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A855" s="2">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A856" s="2">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A857" s="2">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A858" s="2">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A859" s="2">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A860" s="2">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A861" s="2">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A862" s="2">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A863" s="2">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A864" s="2">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A865" s="2">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A866" s="2">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A867" s="2">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A868" s="2">
+        <v>4181</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A869" s="2">
+        <v>4186</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A870" s="2">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A871" s="2">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A872" s="2">
+        <v>4499</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A873" s="2">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A874" s="2">
+        <v>4739</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A875" s="2">
+        <v>4742</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A876" s="2">
+        <v>4856</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A877" s="2">
+        <v>4858</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A878" s="2">
+        <v>4861</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A879" s="2">
+        <v>6056</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A880" s="2">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A881" s="2">
+        <v>6118</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A882" s="2">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A883" s="2">
+        <v>6177</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A884" s="2">
+        <v>6190</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A885" s="2">
+        <v>6542</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A886" s="2">
+        <v>6588</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A887" s="2">
+        <v>6632</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A888" s="2">
+        <v>10187</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A889" s="2">
+        <v>10955</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A890" s="2">
+        <v>11010</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A891" s="2">
+        <v>11089</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A892" s="2">
+        <v>11272</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A893" s="4">
+        <v>11291</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A894" s="2">
+        <v>11455</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A895" s="2">
+        <v>11618</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A896" s="2">
+        <v>13269</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A897" s="2">
+        <v>13965</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A898" s="2">
+        <v>14718</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A899" s="2">
+        <v>15210</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A900" s="2">
+        <v>15458</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A901" s="2">
+        <v>15540</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A902" s="2">
+        <v>15619</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A903" s="2">
+        <v>17485</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A904" s="2">
+        <v>18041</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A905" s="2">
+        <v>18675</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A906" s="2">
+        <v>18744</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A907" s="2">
+        <v>18974</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A908" s="2">
+        <v>19119</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A909" s="2">
+        <v>21459</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A910" s="2">
+        <v>23948</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A911" s="2">
+        <v>23950</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A912" s="2">
+        <v>24131</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A913" s="2">
+        <v>24309</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A914" s="2">
+        <v>24326</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A915" s="2">
+        <v>24482</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A916" s="2">
+        <v>26599</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A917" s="2">
+        <v>28327</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A918" s="2">
+        <v>28802</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A919" s="2">
+        <v>29111</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A920" s="2">
+        <v>30089</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A921" s="2">
+        <v>30104</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A922" s="2">
+        <v>30150</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A923" s="2">
+        <v>30170</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A924" s="2">
+        <v>30285</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A925" s="2">
+        <v>30293</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A926" s="2">
+        <v>30375</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A927" s="2">
+        <v>30395</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A928" s="2">
+        <v>30397</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A929" s="2">
+        <v>44809</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A930" s="2">
+        <v>47994</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A931" s="2">
+        <v>48989</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A932" s="2">
+        <v>57585</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A933" s="2">
+        <v>32056</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A934" s="2">
+        <v>63869</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A935" s="2">
+        <v>32291</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A936" s="2">
+        <v>32474</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A937" s="2">
+        <v>32525</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A938" s="2">
+        <v>35044</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A939" s="2">
+        <v>35394</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A940" s="2">
+        <v>40244</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A941" s="2">
+        <v>40490</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A942" s="2">
+        <v>40996</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A943" s="2">
+        <v>41747</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A944" s="2">
+        <v>41751</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A945" s="2">
+        <v>41948</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A946" s="2">
+        <v>42316</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A947" s="2">
+        <v>43857</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A948" s="2">
+        <v>43967</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A949" s="2">
+        <v>44375</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A950" s="2">
+        <v>87082</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A951" s="2">
+        <v>47094</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A952" s="2">
+        <v>47432</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A953" s="2">
+        <v>50947</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A954" s="2">
+        <v>52031</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A955" s="2">
+        <v>53404</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A956" s="2">
+        <v>53407</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A957" s="2">
+        <v>54568</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A958" s="2">
+        <v>56904</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A959" s="2">
+        <v>57539</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A960" s="2">
+        <v>57783</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A961" s="2">
+        <v>59232</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A962" s="2">
+        <v>60581</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A963" s="2">
+        <v>60607</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A964" s="2">
+        <v>60608</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A965" s="2">
+        <v>60621</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A966" s="2">
+        <v>61199</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A967" s="2">
+        <v>87408</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A968" s="2">
+        <v>64647</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A969" s="2">
+        <v>65092</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A970" s="2">
+        <v>65676</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A971" s="2">
+        <v>65826</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A972" s="2">
+        <v>66792</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A973" s="2">
+        <v>68212</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A974" s="2">
+        <v>68578</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A975" s="2">
+        <v>71772</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A976" s="2">
+        <v>73562</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A977" s="2">
+        <v>78257</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A978" s="2">
+        <v>78258</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A979" s="2">
+        <v>79735</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A980" s="2">
+        <v>85863</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A981" s="2">
+        <v>86057</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A982" s="2">
+        <v>86058</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A983" s="2">
+        <v>86208</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A984" s="2">
+        <v>86876</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A985" s="2">
+        <v>87407</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A986" s="2">
+        <v>87761</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A987" s="2">
+        <v>89522</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A988" s="2">
+        <v>90195</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A989" s="2">
+        <v>90612</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A990" s="2">
+        <v>92099</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A991" s="4">
+        <v>92107</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A992" s="2">
+        <v>92747</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A993" s="2">
+        <v>98262</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A994" s="2">
+        <v>98285</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A995" s="2">
+        <v>98522</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A996" s="2">
+        <v>98613</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A997" s="2">
+        <v>141181</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A998" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A999" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1000" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1001" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1002" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1003" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1004" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1005" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1006" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1007" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1008" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1009" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1010" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1011" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1012" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1013" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1014" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1015" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1016" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1017" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1018" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1019" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1020" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1021" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1022" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1023" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1024" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1025" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1026" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1027" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1028" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1029" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1030" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1031" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1032" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1033" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1034" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1035" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1036" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1037" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1038" s="2">
+        <v>98132</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1039" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1040" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1041" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1042" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1043" s="2">
+        <v>36452</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1044" s="2">
+        <v>11097</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1045" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1046" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1047" s="2">
+        <v>97895</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1048" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1049" s="2">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1050" s="4">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1051" s="2">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1052" s="2">
+        <v>3678</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1053" s="2">
+        <v>3852</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1054" s="2">
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1055" s="2">
+        <v>4870</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1056" s="4">
+        <v>6178</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1057" s="2">
+        <v>6191</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1058" s="2">
+        <v>6215</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1059" s="2">
+        <v>10049</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1060" s="2">
+        <v>10113</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1061" s="2">
+        <v>10202</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1062" s="2">
+        <v>10928</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1063" s="2">
+        <v>13608</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1064" s="2">
+        <v>15071</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1065" s="2">
+        <v>15625</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1066" s="2">
+        <v>17114</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1067" s="2">
+        <v>17835</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1068" s="4">
+        <v>18977</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1069" s="2">
+        <v>24122</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1070" s="2">
+        <v>24316</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1071" s="2">
+        <v>27168</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1072" s="2">
+        <v>30093</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1073" s="2">
+        <v>30258</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1074" s="2">
+        <v>30294</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1075" s="2">
+        <v>30359</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1076" s="2">
+        <v>32198</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1077" s="2">
+        <v>32333</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1078" s="2">
+        <v>32803</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1079" s="2">
+        <v>67329</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1080" s="2">
+        <v>33121</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1081" s="2">
+        <v>42610</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1082" s="2">
+        <v>43720</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1083" s="2">
+        <v>43721</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1084" s="2">
+        <v>48169</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1085" s="2">
+        <v>53400</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1086" s="2">
+        <v>55706</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1087" s="2">
+        <v>55819</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1088" s="2">
+        <v>60602</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1089" s="2">
+        <v>62885</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1090" s="2">
+        <v>64179</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1091" s="2">
+        <v>67338</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1092" s="2">
+        <v>79756</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1093" s="2">
+        <v>80674</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1094" s="2">
+        <v>90202</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1095" s="2">
+        <v>92474</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1096" s="2">
+        <v>92907</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1097" s="2">
+        <v>92926</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1098" s="2">
+        <v>95347</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1099" s="2">
+        <v>96874</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1100" s="2">
+        <v>98141</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1101" s="2">
+        <v>98288</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1102" s="2">
+        <v>98397</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1103" s="2">
+        <v>98577</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1104" s="2">
+        <v>98585</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1105" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1106" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1107" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1108" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1109" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1110" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1111" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1112" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1113" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1114" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1115" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1116" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1117" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1118" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1119" s="2">
+        <v>98567</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1120" s="2">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1121" s="2">
+        <v>78443</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1122" s="2">
+        <v>78444</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1123" s="2">
+        <v>6575</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1124" s="2">
+        <v>4532</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1125" s="2">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1126" s="2">
+        <v>23949</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1127" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1128" s="2">
+        <v>50949</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1129" s="2">
+        <v>15332</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1130" s="2">
+        <v>30350</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1131" s="2">
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1132" s="2">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1133" s="2">
+        <v>6082</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1134" s="2">
+        <v>23996</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1135" s="2">
+        <v>6083</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1136" s="2">
+        <v>64449</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1137" s="2">
+        <v>95198</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1138" s="2">
+        <v>14301</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>